--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>UIHotUpdateRes</t>
+  </si>
+  <si>
+    <t>UIMain</t>
+  </si>
+  <si>
+    <t>UIWindowType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Tips</t>
   </si>
   <si>
     <t>SceneType</t>
@@ -101,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +130,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +347,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,48 +591,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,97 +645,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1185,7 +1184,6 @@
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -1194,7 +1192,6 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5"/>
       <c r="I5">
         <v>2</v>
       </c>
@@ -1203,34 +1200,65 @@
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6"/>
       <c r="I6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
+    <row r="7" spans="7:9">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="b">
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7">
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="7:9">
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
+    <row r="9" spans="7:9">
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
     </row>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -101,12 +101,27 @@
   </si>
   <si>
     <t>TestScene</t>
+  </si>
+  <si>
+    <t>PlayerAvatarPartType</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Foot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -127,34 +142,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,14 +155,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +199,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -265,7 +259,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,49 +301,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,97 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +533,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,52 +770,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1071,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1262,6 +1277,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -28,6 +28,9 @@
     <t>unique</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
   </si>
   <si>
     <t>枚举项是否唯一</t>
@@ -128,18 +131,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -295,180 +293,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,27 +478,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,52 +604,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,91 +667,79 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,109 +1060,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.38333333333333" customWidth="1"/>
+    <col min="7" max="7" width="7.575" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1196,40 +1164,44 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="7:9">
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
+    <row r="5" spans="8:10">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:9">
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
+    <row r="6" spans="8:10">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:9">
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7">
+    <row r="7" spans="8:10">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1237,24 +1209,24 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="7:9">
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1262,24 +1234,24 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="7:9">
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1287,40 +1259,40 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="7:9">
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="7:9">
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14">
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="7:9">
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15">
+    <row r="15" spans="8:10">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>UIMain</t>
+  </si>
+  <si>
+    <t>UISetting</t>
   </si>
   <si>
     <t>UIWindowType</t>
@@ -1060,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1167,7 +1170,6 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4"/>
       <c r="J4">
         <v>1</v>
       </c>
@@ -1176,7 +1178,6 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5"/>
       <c r="J5">
         <v>2</v>
       </c>
@@ -1185,7 +1186,6 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6"/>
       <c r="J6">
         <v>3</v>
       </c>
@@ -1194,84 +1194,83 @@
       <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="I7"/>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
+    <row r="8" spans="8:10">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="b">
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="b">
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
       <c r="H11" t="s">
         <v>29</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="b">
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="b">
+      <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10">
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="8:10">
@@ -1279,7 +1278,7 @@
         <v>33</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="8:10">
@@ -1287,6 +1286,14 @@
         <v>34</v>
       </c>
       <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
         <v>4</v>
       </c>
     </row>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1220,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="8:10">
@@ -1228,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10">

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -79,7 +79,7 @@
     <t>UITest</t>
   </si>
   <si>
-    <t>UIMessageBox</t>
+    <t>UICommonBox</t>
   </si>
   <si>
     <t>UIHotUpdateRes</t>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>UISetting</t>
+  </si>
+  <si>
+    <t>UICommonTips</t>
   </si>
   <si>
     <t>UIWindowType</t>
@@ -1063,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1206,79 +1209,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="b">
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
       <c r="H10" t="s">
         <v>27</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="8:10">
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>30</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="b">
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10">
       <c r="H14" t="s">
         <v>33</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="8:10">
@@ -1286,7 +1289,7 @@
         <v>34</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="8:10">
@@ -1294,6 +1297,14 @@
         <v>35</v>
       </c>
       <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -125,12 +138,42 @@
   </si>
   <si>
     <t>Foot</t>
+  </si>
+  <si>
+    <t>TriggerMode</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>BeDamage</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>RemoveBuff</t>
+  </si>
+  <si>
+    <t>ExcuteBuff</t>
+  </si>
+  <si>
+    <t>PropChange</t>
+  </si>
+  <si>
+    <t>CommonHandleType1</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1066,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1308,6 +1351,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Reset</t>
+  </si>
+  <si>
+    <t>Keep</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1433,6 +1436,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="8:10">
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>UICommonTips</t>
+  </si>
+  <si>
+    <t>UISceneLoading</t>
   </si>
   <si>
     <t>UIWindowType</t>
@@ -1112,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1263,79 +1266,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" t="s">
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="b">
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
       <c r="H11" t="s">
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="8:10">
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="H13" t="s">
         <v>31</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="b">
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="b">
+      <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10">
       <c r="H15" t="s">
         <v>34</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="8:10">
@@ -1343,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="8:10">
@@ -1351,32 +1354,32 @@
         <v>36</v>
       </c>
       <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="b">
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10">
       <c r="H19" t="s">
         <v>39</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:10">
@@ -1384,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="8:10">
@@ -1392,7 +1395,7 @@
         <v>41</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="8:10">
@@ -1400,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="8:10">
@@ -1408,32 +1411,32 @@
         <v>43</v>
       </c>
       <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="b">
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10">
       <c r="H25" t="s">
         <v>46</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="8:10">
@@ -1441,6 +1444,14 @@
         <v>47</v>
       </c>
       <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27">
         <v>3</v>
       </c>
     </row>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -110,6 +110,9 @@
     <t>UISceneLoading</t>
   </si>
   <si>
+    <t>UIGuide</t>
+  </si>
+  <si>
     <t>UIWindowType</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
   </si>
   <si>
     <t>Tips</t>
+  </si>
+  <si>
+    <t>Guide</t>
   </si>
   <si>
     <t>SceneType</t>
@@ -1115,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1274,43 +1280,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="b">
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10">
       <c r="H12" t="s">
         <v>29</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="14" spans="8:10">
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1335,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1343,18 +1340,27 @@
     </row>
     <row r="16" spans="8:10">
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="8:10">
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
       <c r="H17" t="s">
         <v>36</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="8:10">
@@ -1362,40 +1368,40 @@
         <v>37</v>
       </c>
       <c r="J18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
       <c r="J19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="8:10">
       <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
       <c r="H21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="8:10">
@@ -1403,7 +1409,7 @@
         <v>42</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="8:10">
@@ -1411,7 +1417,7 @@
         <v>43</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="8:10">
@@ -1419,39 +1425,55 @@
         <v>44</v>
       </c>
       <c r="J24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
       <c r="J25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10">
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
       <c r="H27" t="s">
         <v>48</v>
       </c>
       <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,57 @@
   </si>
   <si>
     <t>Keep</t>
+  </si>
+  <si>
+    <t>ConditionType</t>
+  </si>
+  <si>
+    <t>Condition_Action</t>
+  </si>
+  <si>
+    <t>TriggerCondition_Random</t>
+  </si>
+  <si>
+    <t>TriggerCondition_AccCount</t>
+  </si>
+  <si>
+    <t>FunctionUnlockCondition_Lv</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Action_Action</t>
+  </si>
+  <si>
+    <t>Action_Debug</t>
+  </si>
+  <si>
+    <t>TriggerAction_AddTrigger</t>
+  </si>
+  <si>
+    <t>TriggerAction_RemoveTrigger</t>
+  </si>
+  <si>
+    <t>TriggerAction_ExcuteTrigger</t>
+  </si>
+  <si>
+    <t>TriggerAction_AddBuff</t>
+  </si>
+  <si>
+    <t>TriggerAction_RemoveBuff</t>
+  </si>
+  <si>
+    <t>BuffAction_AddProp</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>Turntable</t>
+  </si>
+  <si>
+    <t>FunctionUnlockType</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1135,7 +1186,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9.38333333333333" customWidth="1"/>
     <col min="7" max="7" width="7.575" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1475,6 +1526,154 @@
       </c>
       <c r="J29">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10">
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>FunctionUnlockType</t>
+  </si>
+  <si>
+    <t>DamageRangeType</t>
+  </si>
+  <si>
+    <t>Rect</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1676,6 +1685,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>Circle</t>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Entity</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1710,6 +1719,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -86,169 +86,13 @@
     <t>注释</t>
   </si>
   <si>
-    <t>UIType</t>
-  </si>
-  <si>
-    <t>UITest</t>
-  </si>
-  <si>
-    <t>UICommonBox</t>
-  </si>
-  <si>
-    <t>UIHotUpdateRes</t>
-  </si>
-  <si>
-    <t>UIMain</t>
-  </si>
-  <si>
-    <t>UISetting</t>
-  </si>
-  <si>
-    <t>UICommonTips</t>
-  </si>
-  <si>
-    <t>UISceneLoading</t>
-  </si>
-  <si>
-    <t>UIGuide</t>
-  </si>
-  <si>
-    <t>UIWindowType</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Tips</t>
-  </si>
-  <si>
-    <t>Guide</t>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>SceneBase</t>
-  </si>
-  <si>
-    <t>TestScene</t>
-  </si>
-  <si>
-    <t>PlayerAvatarPartType</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>TriggerMode</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>BeDamage</t>
-  </si>
-  <si>
-    <t>AddBuff</t>
-  </si>
-  <si>
-    <t>RemoveBuff</t>
-  </si>
-  <si>
-    <t>ExcuteBuff</t>
-  </si>
-  <si>
-    <t>PropChange</t>
-  </si>
-  <si>
-    <t>CommonHandleType1</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Keep</t>
-  </si>
-  <si>
-    <t>ConditionType</t>
-  </si>
-  <si>
-    <t>Condition_Action</t>
-  </si>
-  <si>
-    <t>TriggerCondition_Random</t>
-  </si>
-  <si>
-    <t>TriggerCondition_AccCount</t>
-  </si>
-  <si>
-    <t>FunctionUnlockCondition_Lv</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Action_Action</t>
-  </si>
-  <si>
-    <t>Action_Debug</t>
-  </si>
-  <si>
-    <t>TriggerAction_AddTrigger</t>
-  </si>
-  <si>
-    <t>TriggerAction_RemoveTrigger</t>
-  </si>
-  <si>
-    <t>TriggerAction_ExcuteTrigger</t>
-  </si>
-  <si>
-    <t>TriggerAction_AddBuff</t>
-  </si>
-  <si>
-    <t>TriggerAction_RemoveBuff</t>
-  </si>
-  <si>
-    <t>BuffAction_AddProp</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>Turntable</t>
-  </si>
-  <si>
-    <t>FunctionUnlockType</t>
-  </si>
-  <si>
-    <t>DamageRangeType</t>
-  </si>
-  <si>
-    <t>Rect</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>SkillType</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Entity</t>
+    <t>EnumTemplate</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1190,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
@@ -1309,441 +1153,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="8:10">
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="8:10">
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10">
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10">
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10">
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="8:10">
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10">
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10">
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10">
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10">
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10">
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10">
-      <c r="H25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="8:10">
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="8:10">
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:10">
-      <c r="H31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="8:10">
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10">
-      <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10">
-      <c r="H35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10">
-      <c r="H36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10">
-      <c r="H37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10">
-      <c r="H38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10">
-      <c r="H39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10">
-      <c r="H40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10">
-      <c r="H41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10">
-      <c r="H45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10">
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
-    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
   </si>
   <si>
     <t>枚举项是否唯一</t>
@@ -267,6 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +441,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,12 +452,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,109 +611,109 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,12 +723,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,7 +1058,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1052,81 +1073,91 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" customFormat="1" ht="99" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -258,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,175 +267,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,13 +719,13 @@
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1064,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
